--- a/output/ValueSet-vs-binary-gender.xlsx
+++ b/output/ValueSet-vs-binary-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
